--- a/src/main/java/writeExcel/NumberOfCell.xlsx
+++ b/src/main/java/writeExcel/NumberOfCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\writeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4753C55-E783-4D7C-B70B-E49511BFFED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7ACFE-2EE6-4DD4-8AE8-EC29EF26F454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6975" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{6C56C88D-7B52-40DB-961B-47079AB370FE}"/>
   </bookViews>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2026BDA6-977D-4F4B-8D2E-0C520094314D}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>176</v>
       </c>
       <c r="L3" s="1">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M3" s="1">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -564,21 +564,29 @@
         <v>33</v>
       </c>
       <c r="E4" s="1">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
         <v>37</v>
-      </c>
-      <c r="F4" s="1">
-        <v>39</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1">
+        <v>112</v>
+      </c>
       <c r="K4" s="1">
         <v>54</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -587,150 +595,302 @@
       <c r="B5" s="1">
         <v>31</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>101</v>
+      </c>
       <c r="D5" s="1">
         <v>53</v>
       </c>
       <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
         <v>35</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="I5" s="1">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>102</v>
+      </c>
+      <c r="K5" s="1">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>83</v>
+      </c>
       <c r="D6" s="1">
         <v>37</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43</v>
+      </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="1">
+        <v>179</v>
+      </c>
+      <c r="J6" s="1">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1">
+        <v>135</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>39</v>
+      </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="1">
+        <v>226</v>
+      </c>
+      <c r="J7" s="1">
+        <v>154</v>
+      </c>
+      <c r="K7" s="1">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1">
+        <v>78</v>
+      </c>
+      <c r="M7" s="1">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>129</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37</v>
+      </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="I8" s="1">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1">
+        <v>161</v>
+      </c>
+      <c r="K8" s="1">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1">
+        <v>197</v>
+      </c>
+      <c r="M8" s="1">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37</v>
+      </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="I9" s="1">
+        <v>122</v>
+      </c>
+      <c r="J9" s="1">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1">
+        <v>113</v>
+      </c>
+      <c r="L9" s="1">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39</v>
+      </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="I10" s="1">
+        <v>139</v>
+      </c>
+      <c r="J10" s="1">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1">
+        <v>96</v>
+      </c>
+      <c r="L10" s="1">
+        <v>94</v>
+      </c>
+      <c r="M10" s="1">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35</v>
+      </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="I11" s="1">
+        <v>205</v>
+      </c>
+      <c r="J11" s="1">
+        <v>229</v>
+      </c>
+      <c r="K11" s="1">
+        <v>63</v>
+      </c>
+      <c r="L11" s="1">
+        <v>82</v>
+      </c>
+      <c r="M11" s="1">
+        <v>233</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>37</v>
+      </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="I12" s="1">
+        <v>75</v>
+      </c>
+      <c r="J12" s="1">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1">
+        <v>160</v>
+      </c>
+      <c r="M12" s="1">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -995,16 +1155,24 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1">
+        <v>209</v>
+      </c>
+      <c r="F27" s="1">
+        <v>169</v>
+      </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1">
+        <v>1826</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2613</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1013,16 +1181,24 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1">
+        <v>157</v>
+      </c>
+      <c r="F28" s="1">
+        <v>187</v>
+      </c>
       <c r="H28" s="1">
         <v>2</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="1">
+        <v>827</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3611</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1031,16 +1207,24 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1">
+        <v>151</v>
+      </c>
+      <c r="F29" s="1">
+        <v>197</v>
+      </c>
       <c r="H29" s="1">
         <v>3</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="1">
+        <v>1274</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3472</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1049,16 +1233,24 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1">
+        <v>197</v>
+      </c>
       <c r="H30" s="1">
         <v>4</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="1">
+        <v>764</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3930</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1067,16 +1259,24 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1">
+        <v>147</v>
+      </c>
+      <c r="F31" s="1">
+        <v>163</v>
+      </c>
       <c r="H31" s="1">
         <v>5</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="L31" s="1">
+        <v>660</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1930</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1085,16 +1285,24 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1">
+        <v>177</v>
+      </c>
       <c r="H32" s="1">
         <v>6</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="1">
+        <v>1108</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2430</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1103,16 +1311,24 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1">
+        <v>165</v>
+      </c>
+      <c r="F33" s="1">
+        <v>177</v>
+      </c>
       <c r="H33" s="1">
         <v>7</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="1">
+        <v>307</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2944</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1121,16 +1337,24 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1">
+        <v>163</v>
+      </c>
+      <c r="F34" s="1">
+        <v>163</v>
+      </c>
       <c r="H34" s="1">
         <v>8</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="1">
+        <v>1044</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2933</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1139,16 +1363,24 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1">
+        <v>281</v>
+      </c>
+      <c r="F35" s="1">
+        <v>177</v>
+      </c>
       <c r="H35" s="1">
         <v>9</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1">
+        <v>1124</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3735</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1157,16 +1389,24 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1">
+        <v>139</v>
+      </c>
+      <c r="F36" s="1">
+        <v>187</v>
+      </c>
       <c r="H36" s="1">
         <v>10</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="1">
+        <v>2557</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3561</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1214,7 +1454,9 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>383</v>
+      </c>
       <c r="H39" s="1">
         <v>1</v>
       </c>
@@ -1222,7 +1464,9 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1">
+        <v>13089</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1387,10 +1631,6 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/writeExcel/NumberOfCell.xlsx
+++ b/src/main/java/writeExcel/NumberOfCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\writeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7ACFE-2EE6-4DD4-8AE8-EC29EF26F454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095F624-4908-41CF-931E-4A9C5F9CE46F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{6C56C88D-7B52-40DB-961B-47079AB370FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C56C88D-7B52-40DB-961B-47079AB370FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2026BDA6-977D-4F4B-8D2E-0C520094314D}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,181 +934,381 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="1">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>211</v>
+      </c>
+      <c r="D15" s="1">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1">
+        <v>81</v>
+      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="I15" s="1">
+        <v>599</v>
+      </c>
+      <c r="J15" s="1">
+        <v>215</v>
+      </c>
+      <c r="K15" s="1">
+        <v>193</v>
+      </c>
+      <c r="L15" s="1">
+        <v>583</v>
+      </c>
+      <c r="M15" s="1">
+        <v>379</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>445</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>79</v>
+      </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="I16" s="1">
+        <v>668</v>
+      </c>
+      <c r="J16" s="1">
+        <v>503</v>
+      </c>
+      <c r="K16" s="1">
+        <v>195</v>
+      </c>
+      <c r="L16" s="1">
+        <v>591</v>
+      </c>
+      <c r="M16" s="1">
+        <v>869</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>551</v>
+      </c>
+      <c r="D17" s="1">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1">
+        <v>75</v>
+      </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="1">
+        <v>623</v>
+      </c>
+      <c r="J17" s="1">
+        <v>739</v>
+      </c>
+      <c r="K17" s="1">
+        <v>212</v>
+      </c>
+      <c r="L17" s="1">
+        <v>141</v>
+      </c>
+      <c r="M17" s="1">
+        <v>429</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="1">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <v>489</v>
+      </c>
+      <c r="D18" s="1">
+        <v>109</v>
+      </c>
+      <c r="E18" s="1">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1">
+        <v>87</v>
+      </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="I18" s="1">
+        <v>199</v>
+      </c>
+      <c r="J18" s="1">
+        <v>582</v>
+      </c>
+      <c r="K18" s="1">
+        <v>279</v>
+      </c>
+      <c r="L18" s="1">
+        <v>453</v>
+      </c>
+      <c r="M18" s="1">
+        <v>771</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="1">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
+        <v>525</v>
+      </c>
+      <c r="D19" s="1">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1">
+        <v>77</v>
+      </c>
       <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="1">
+        <v>153</v>
+      </c>
+      <c r="J19" s="1">
+        <v>634</v>
+      </c>
+      <c r="K19" s="1">
+        <v>148</v>
+      </c>
+      <c r="L19" s="1">
+        <v>246</v>
+      </c>
+      <c r="M19" s="1">
+        <v>462</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="1">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>449</v>
+      </c>
+      <c r="D20" s="1">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1">
+        <v>77</v>
+      </c>
       <c r="H20" s="1">
         <v>6</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="1">
+        <v>594</v>
+      </c>
+      <c r="J20" s="1">
+        <v>547</v>
+      </c>
+      <c r="K20" s="1">
+        <v>260</v>
+      </c>
+      <c r="L20" s="1">
+        <v>143</v>
+      </c>
+      <c r="M20" s="1">
+        <v>774</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="1">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>539</v>
+      </c>
+      <c r="D21" s="1">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1">
+        <v>89</v>
+      </c>
       <c r="H21" s="1">
         <v>7</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="1">
+        <v>321</v>
+      </c>
+      <c r="J21" s="1">
+        <v>679</v>
+      </c>
+      <c r="K21" s="1">
+        <v>432</v>
+      </c>
+      <c r="L21" s="1">
+        <v>210</v>
+      </c>
+      <c r="M21" s="1">
+        <v>856</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="1">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>221</v>
+      </c>
+      <c r="D22" s="1">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
+        <v>77</v>
+      </c>
       <c r="H22" s="1">
         <v>8</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="I22" s="1">
+        <v>526</v>
+      </c>
+      <c r="J22" s="1">
+        <v>235</v>
+      </c>
+      <c r="K22" s="1">
+        <v>601</v>
+      </c>
+      <c r="L22" s="1">
+        <v>215</v>
+      </c>
+      <c r="M22" s="1">
+        <v>643</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="1">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>215</v>
+      </c>
+      <c r="D23" s="1">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1">
+        <v>77</v>
+      </c>
       <c r="H23" s="1">
         <v>9</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="I23" s="1">
+        <v>781</v>
+      </c>
+      <c r="J23" s="1">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1">
+        <v>459</v>
+      </c>
+      <c r="L23" s="1">
+        <v>341</v>
+      </c>
+      <c r="M23" s="1">
+        <v>539</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="1">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
+        <v>303</v>
+      </c>
+      <c r="D24" s="1">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1">
+        <v>77</v>
+      </c>
       <c r="H24" s="1">
         <v>10</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="I24" s="1">
+        <v>556</v>
+      </c>
+      <c r="J24" s="1">
+        <v>351</v>
+      </c>
+      <c r="K24" s="1">
+        <v>192</v>
+      </c>
+      <c r="L24" s="1">
+        <v>199</v>
+      </c>
+      <c r="M24" s="1">
+        <v>645</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1152,9 +1352,15 @@
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1">
+        <v>131</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1663</v>
+      </c>
+      <c r="D27" s="1">
+        <v>179</v>
+      </c>
       <c r="E27" s="1">
         <v>209</v>
       </c>
@@ -1164,9 +1370,15 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1">
+        <v>2706</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2755</v>
+      </c>
+      <c r="K27" s="1">
+        <v>498</v>
+      </c>
       <c r="L27" s="1">
         <v>1826</v>
       </c>
@@ -1178,9 +1390,15 @@
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1705</v>
+      </c>
+      <c r="D28" s="1">
+        <v>223</v>
+      </c>
       <c r="E28" s="1">
         <v>157</v>
       </c>
@@ -1190,9 +1408,15 @@
       <c r="H28" s="1">
         <v>2</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="1">
+        <v>2915</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2757</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1329</v>
+      </c>
       <c r="L28" s="1">
         <v>827</v>
       </c>
@@ -1204,9 +1428,15 @@
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1751</v>
+      </c>
+      <c r="D29" s="1">
+        <v>271</v>
+      </c>
       <c r="E29" s="1">
         <v>151</v>
       </c>
@@ -1216,9 +1446,15 @@
       <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1">
+        <v>415</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2882</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3049</v>
+      </c>
       <c r="L29" s="1">
         <v>1274</v>
       </c>
@@ -1230,9 +1466,15 @@
       <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="1">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1343</v>
+      </c>
+      <c r="D30" s="1">
+        <v>237</v>
+      </c>
       <c r="E30" s="1">
         <v>203</v>
       </c>
@@ -1242,9 +1484,15 @@
       <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1">
+        <v>2641</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K30" s="1">
+        <v>865</v>
+      </c>
       <c r="L30" s="1">
         <v>764</v>
       </c>
@@ -1256,9 +1504,15 @@
       <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="1">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1541</v>
+      </c>
+      <c r="D31" s="1">
+        <v>307</v>
+      </c>
       <c r="E31" s="1">
         <v>147</v>
       </c>
@@ -1268,9 +1522,15 @@
       <c r="H31" s="1">
         <v>5</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1">
+        <v>429</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2182</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1394</v>
+      </c>
       <c r="L31" s="1">
         <v>660</v>
       </c>
@@ -1282,9 +1542,15 @@
       <c r="A32" s="1">
         <v>6</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="1">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1">
+        <v>869</v>
+      </c>
+      <c r="D32" s="1">
+        <v>191</v>
+      </c>
       <c r="E32" s="1">
         <v>137</v>
       </c>
@@ -1294,9 +1560,15 @@
       <c r="H32" s="1">
         <v>6</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1">
+        <v>245</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1013</v>
+      </c>
+      <c r="K32" s="1">
+        <v>517</v>
+      </c>
       <c r="L32" s="1">
         <v>1108</v>
       </c>
@@ -1308,9 +1580,15 @@
       <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="1">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1437</v>
+      </c>
+      <c r="D33" s="1">
+        <v>197</v>
+      </c>
       <c r="E33" s="1">
         <v>165</v>
       </c>
@@ -1320,9 +1598,15 @@
       <c r="H33" s="1">
         <v>7</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1">
+        <v>251</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1861</v>
+      </c>
+      <c r="K33" s="1">
+        <v>491</v>
+      </c>
       <c r="L33" s="1">
         <v>307</v>
       </c>
@@ -1334,9 +1618,15 @@
       <c r="A34" s="1">
         <v>8</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1">
+        <v>815</v>
+      </c>
+      <c r="D34" s="1">
+        <v>199</v>
+      </c>
       <c r="E34" s="1">
         <v>163</v>
       </c>
@@ -1346,9 +1636,15 @@
       <c r="H34" s="1">
         <v>8</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1">
+        <v>2429</v>
+      </c>
+      <c r="J34" s="1">
+        <v>962</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1092</v>
+      </c>
       <c r="L34" s="1">
         <v>1044</v>
       </c>
@@ -1360,9 +1656,15 @@
       <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="1">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1">
+        <v>611</v>
+      </c>
+      <c r="D35" s="1">
+        <v>223</v>
+      </c>
       <c r="E35" s="1">
         <v>281</v>
       </c>
@@ -1372,9 +1674,15 @@
       <c r="H35" s="1">
         <v>9</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1">
+        <v>299</v>
+      </c>
+      <c r="J35" s="1">
+        <v>666</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1304</v>
+      </c>
       <c r="L35" s="1">
         <v>1124</v>
       </c>
@@ -1386,9 +1694,15 @@
       <c r="A36" s="1">
         <v>10</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="1">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1">
+        <v>673</v>
+      </c>
+      <c r="D36" s="1">
+        <v>245</v>
+      </c>
       <c r="E36" s="1">
         <v>139</v>
       </c>
@@ -1398,9 +1712,15 @@
       <c r="H36" s="1">
         <v>10</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="1">
+        <v>2952</v>
+      </c>
+      <c r="J36" s="1">
+        <v>773</v>
+      </c>
+      <c r="K36" s="1">
+        <v>810</v>
+      </c>
       <c r="L36" s="1">
         <v>2557</v>
       </c>
@@ -1450,7 +1770,9 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>287</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1460,7 +1782,9 @@
       <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1">
+        <v>10080</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1472,7 +1796,9 @@
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>287</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1480,7 +1806,9 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1">
+        <v>11976</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>

--- a/src/main/java/writeExcel/NumberOfCell.xlsx
+++ b/src/main/java/writeExcel/NumberOfCell.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\writeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095F624-4908-41CF-931E-4A9C5F9CE46F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB9277-A199-4C56-99AC-8F38FC2D6EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C56C88D-7B52-40DB-961B-47079AB370FE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,13 +61,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,26 +441,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2026BDA6-977D-4F4B-8D2E-0C520094314D}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1576,7 +1583,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>128</v>
       </c>
@@ -1766,16 +1773,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>287</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1">
+        <v>5767</v>
+      </c>
+      <c r="D39" s="1">
+        <v>563</v>
+      </c>
+      <c r="E39" s="1">
+        <v>321</v>
+      </c>
       <c r="F39" s="1">
         <v>383</v>
       </c>
@@ -1785,180 +1798,364 @@
       <c r="I39" s="1">
         <v>10080</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="J39" s="1">
+        <v>10993</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4396</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9269</v>
+      </c>
       <c r="M39" s="1">
         <v>13089</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>287</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1">
+        <v>4997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>431</v>
+      </c>
+      <c r="E40" s="1">
+        <v>315</v>
+      </c>
+      <c r="F40" s="1">
+        <v>375</v>
+      </c>
       <c r="H40" s="1">
         <v>2</v>
       </c>
       <c r="I40" s="1">
         <v>11976</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="1">
+        <v>7191</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3875</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2270</v>
+      </c>
+      <c r="M40" s="1">
+        <v>17188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="B41" s="1">
+        <v>287</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8353</v>
+      </c>
+      <c r="D41" s="1">
+        <v>545</v>
+      </c>
+      <c r="E41" s="1">
+        <v>735</v>
+      </c>
+      <c r="F41" s="1">
+        <v>365</v>
+      </c>
       <c r="H41" s="1">
         <v>3</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>763</v>
+      </c>
+      <c r="J41" s="1">
+        <v>14492</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10392</v>
+      </c>
+      <c r="L41" s="1">
+        <v>7245</v>
+      </c>
+      <c r="M41" s="1">
+        <v>17307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="B42" s="1">
+        <v>287</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4861</v>
+      </c>
+      <c r="D42" s="1">
+        <v>893</v>
+      </c>
+      <c r="E42" s="1">
+        <v>423</v>
+      </c>
+      <c r="F42" s="1">
+        <v>385</v>
+      </c>
       <c r="H42" s="1">
         <v>4</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>11614</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6891</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7997</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4502</v>
+      </c>
+      <c r="M42" s="1">
+        <v>18606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="1">
+        <v>287</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7645</v>
+      </c>
+      <c r="D43" s="1">
+        <v>613</v>
+      </c>
+      <c r="E43" s="1">
+        <v>363</v>
+      </c>
+      <c r="F43" s="1">
+        <v>385</v>
+      </c>
       <c r="H43" s="1">
         <v>5</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>943</v>
+      </c>
+      <c r="J43" s="1">
+        <v>14252</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3982</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3092</v>
+      </c>
+      <c r="M43" s="1">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="1">
+        <v>287</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4601</v>
+      </c>
+      <c r="D44" s="1">
+        <v>479</v>
+      </c>
+      <c r="E44" s="1">
+        <v>299</v>
+      </c>
+      <c r="F44" s="1">
+        <v>381</v>
+      </c>
       <c r="H44" s="1">
         <v>6</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>4257</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6462</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2061</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4087</v>
+      </c>
+      <c r="M44" s="1">
+        <v>10103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="1">
+        <v>287</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2915</v>
+      </c>
+      <c r="D45" s="1">
+        <v>497</v>
+      </c>
+      <c r="E45" s="1">
+        <v>343</v>
+      </c>
+      <c r="F45" s="1">
+        <v>399</v>
+      </c>
       <c r="H45" s="1">
         <v>7</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>2475</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3757</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2521</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2486</v>
+      </c>
+      <c r="M45" s="1">
+        <v>14556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="B46" s="1">
+        <v>287</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3105</v>
+      </c>
+      <c r="D46" s="1">
+        <v>713</v>
+      </c>
+      <c r="E46" s="1">
+        <v>381</v>
+      </c>
+      <c r="F46" s="1">
+        <v>373</v>
+      </c>
       <c r="H46" s="1">
         <v>8</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>1816</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4012</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5333</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3788</v>
+      </c>
+      <c r="M46" s="1">
+        <v>13653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="B47" s="1">
+        <v>287</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3965</v>
+      </c>
+      <c r="D47" s="1">
+        <v>639</v>
+      </c>
+      <c r="E47" s="1">
+        <v>785</v>
+      </c>
+      <c r="F47" s="1">
+        <v>379</v>
+      </c>
       <c r="H47" s="1">
         <v>9</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>2984</v>
+      </c>
+      <c r="J47" s="1">
+        <v>6859</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9340</v>
+      </c>
+      <c r="L47" s="1">
+        <v>11159</v>
+      </c>
+      <c r="M47" s="1">
+        <v>12737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="B48" s="1">
+        <v>287</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>5441.0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>607</v>
+      </c>
+      <c r="E48" s="1">
+        <v>347</v>
+      </c>
+      <c r="F48" s="1">
+        <v>399</v>
+      </c>
       <c r="H48" s="1">
         <v>10</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="I48" s="1">
+        <v>11269</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>8459.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4409</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1377</v>
+      </c>
+      <c r="M48" s="1">
+        <v>14668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>